--- a/public/customer_groups.xlsx
+++ b/public/customer_groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EBD9AB0-6776-4F20-A49D-B7D559526E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613FC4C2-FD37-4EBE-A373-83CEB88852B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6B54AA77-4B6F-40FA-8226-3D08B5A9FC16}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>Tenant</t>
   </si>
@@ -157,13 +157,73 @@
   </si>
   <si>
     <t>Last modified date &amp; time</t>
+  </si>
+  <si>
+    <t>jareen</t>
+  </si>
+  <si>
+    <t>10/07/2024 10:32PM</t>
+  </si>
+  <si>
+    <t>anjani</t>
+  </si>
+  <si>
+    <t>15/03/2024 11:03PM</t>
+  </si>
+  <si>
+    <t>sindhuja</t>
+  </si>
+  <si>
+    <t>22/05/2024 9:32AM</t>
+  </si>
+  <si>
+    <t>manoj</t>
+  </si>
+  <si>
+    <t>17/05/2024 5:32PM</t>
+  </si>
+  <si>
+    <t>lohitha</t>
+  </si>
+  <si>
+    <t>27/06/2024 08:32AM</t>
+  </si>
+  <si>
+    <t>gopi</t>
+  </si>
+  <si>
+    <t>13/05/2024 07:15PM</t>
+  </si>
+  <si>
+    <t>phani</t>
+  </si>
+  <si>
+    <t>25/06/2024 09:45AM</t>
+  </si>
+  <si>
+    <t>pooja</t>
+  </si>
+  <si>
+    <t>12/06/2024 10:35PM</t>
+  </si>
+  <si>
+    <t>nikhil</t>
+  </si>
+  <si>
+    <t>23/06/2024 8:22AM</t>
+  </si>
+  <si>
+    <t>tejaswini</t>
+  </si>
+  <si>
+    <t>17/06/2024 9:38PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,11 +244,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFED5565"/>
-      <name val="FontAwesome"/>
     </font>
   </fonts>
   <fills count="6">
@@ -236,22 +291,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -575,20 +623,20 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -598,302 +646,329 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="20.399999999999999">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="20.399999999999999">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="30.6">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.399999999999999">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="20.399999999999999">
-      <c r="A9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="30.6">
-      <c r="A11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="30.6">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="30.6">
-      <c r="A13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="5" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="20.399999999999999">
-      <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="20.399999999999999">
-      <c r="A15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="30.6">
-      <c r="A16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="30.6">
-      <c r="A17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="5" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="20.399999999999999">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" ht="20.399999999999999">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" ht="20.399999999999999">
-      <c r="A23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="5" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="20.399999999999999">
-      <c r="A24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" ht="20.399999999999999">
-      <c r="A25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="5" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" ht="30.6">
-      <c r="A27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="5" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" ht="20.399999999999999">
-      <c r="A30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="5" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" ht="20.399999999999999">
-      <c r="A31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" ht="20.399999999999999">
-      <c r="A33" s="3" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" ht="20.399999999999999">
-      <c r="A34" s="7" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
